--- a/UserInterface/Content/Uploads/OtherExpense_00.00.0000_E0.xlsx
+++ b/UserInterface/Content/Uploads/OtherExpense_00.00.0000_E0.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Column Details" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -54,13 +55,61 @@
   </si>
   <si>
     <t>Amount</t>
+  </si>
+  <si>
+    <t>Sl no</t>
+  </si>
+  <si>
+    <t>Column Header</t>
+  </si>
+  <si>
+    <t>The fields given in red are mandatory</t>
+  </si>
+  <si>
+    <t>Account Code from Chart Of Accounts,eg: If  Weekly wages then code is WKLYWGS</t>
+  </si>
+  <si>
+    <t>EmpCode of Employee</t>
+  </si>
+  <si>
+    <t>Name of  Employee</t>
+  </si>
+  <si>
+    <t>Company Name of Employee</t>
+  </si>
+  <si>
+    <t>Payment Mode (CASH/CHEQUE/ONLINE)</t>
+  </si>
+  <si>
+    <t>Description (eg:WEEKLY WAGES PAID TO SIVARAMAN K.G (23-09-17 TO 29-09-17) (6 DAYS) )</t>
+  </si>
+  <si>
+    <t>Name of the Company (eg: Abhirami Industries (HO))</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Expense Date of the Expense</t>
+  </si>
+  <si>
+    <t>To Be Noted:</t>
+  </si>
+  <si>
+    <t>File name should be in proper format (eg: OtherExpense_04.01.2018_E1)</t>
+  </si>
+  <si>
+    <t>A file can be imported only once. If you want to import another file on the same day , file name should be ended with the 'E' + next number (eg OtherExpense_04.01.2018_E2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File Format Should be in .xlsx </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,26 +118,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -96,16 +204,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -386,13 +537,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
     <col min="3" max="3" width="29.140625" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="28.5703125" customWidth="1"/>
@@ -400,41 +551,224 @@
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="19.85546875" customWidth="1"/>
     <col min="9" max="9" width="49.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1"/>
+    <col min="3" max="3" width="136.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <f>SUM(A2,1)</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <f t="shared" ref="A4:A11" si="0">SUM(A3,1)</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B15" s="9"/>
+      <c r="C15" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B16" s="9"/>
+      <c r="C16" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B17" s="9"/>
+      <c r="C17" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B14:B17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>